--- a/BOM_MTU_Rev0_20160517.xlsx
+++ b/BOM_MTU_Rev0_20160517.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Donatiello, Reto</author>
+    <author>Berg, Demian</author>
   </authors>
   <commentList>
     <comment ref="H6" authorId="0">
@@ -44,6 +45,30 @@
 Bei RS-Online gehen die Preise bei ca 4.- CHF los
  -.-
 Sieht bei AliExpress nicht besser aus </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Berg, Demian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Circuitmaker Lib vorhanden</t>
         </r>
       </text>
     </comment>
@@ -142,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +197,19 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -531,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
